--- a/data/深夜食堂/word_frequency.xlsx
+++ b/data/深夜食堂/word_frequency.xlsx
@@ -44,15 +44,12 @@
 </t>
   </si>
   <si>
+    <t>食堂</t>
+  </si>
+  <si>
     <t>治愈</t>
   </si>
   <si>
-    <t>食堂</t>
-  </si>
-  <si>
-    <t>一个</t>
-  </si>
-  <si>
     <t>美食</t>
   </si>
   <si>
@@ -71,12 +68,12 @@
     <t>生活</t>
   </si>
   <si>
+    <t>想</t>
+  </si>
+  <si>
     <t>简单</t>
   </si>
   <si>
-    <t>想</t>
-  </si>
-  <si>
     <t>完</t>
   </si>
   <si>
@@ -92,27 +89,24 @@
     <t>日本</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>会</t>
   </si>
   <si>
     <t>这种</t>
   </si>
   <si>
+    <t>日剧</t>
+  </si>
+  <si>
     <t>一集</t>
   </si>
   <si>
-    <t>日剧</t>
+    <t>大叔</t>
   </si>
   <si>
     <t>里</t>
   </si>
   <si>
-    <t>大叔</t>
-  </si>
-  <si>
     <t>太</t>
   </si>
   <si>
@@ -122,18 +116,18 @@
     <t>爱</t>
   </si>
   <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>说</t>
   </si>
   <si>
+    <t>做</t>
+  </si>
+  <si>
     <t>真的</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>做</t>
-  </si>
-  <si>
     <t>感动</t>
   </si>
   <si>
@@ -149,709 +143,769 @@
     <t>酱油</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>非常</t>
   </si>
   <si>
+    <t>拌</t>
+  </si>
+  <si>
+    <t>每个</t>
+  </si>
+  <si>
     <t>平淡</t>
   </si>
   <si>
-    <t>拌</t>
-  </si>
-  <si>
     <t>平凡</t>
   </si>
   <si>
-    <t>每个</t>
-  </si>
-  <si>
     <t>电影</t>
   </si>
   <si>
+    <t>觉得</t>
+  </si>
+  <si>
+    <t>好吃</t>
+  </si>
+  <si>
+    <t>百态</t>
+  </si>
+  <si>
     <t>一种</t>
   </si>
   <si>
     <t>鸡蛋</t>
   </si>
   <si>
-    <t>百态</t>
-  </si>
-  <si>
-    <t>好吃</t>
-  </si>
-  <si>
-    <t>觉得</t>
-  </si>
-  <si>
     <t>黄油</t>
   </si>
   <si>
+    <t>容易</t>
+  </si>
+  <si>
     <t>电视剧</t>
   </si>
   <si>
     <t>小田切</t>
   </si>
   <si>
-    <t>容易</t>
+    <t>小店</t>
   </si>
   <si>
     <t>～</t>
   </si>
   <si>
-    <t>小店</t>
-  </si>
-  <si>
     <t>味道</t>
   </si>
   <si>
     <t>不要</t>
   </si>
   <si>
+    <t>一定</t>
+  </si>
+  <si>
     <t>小林</t>
   </si>
   <si>
     <t>人世间</t>
   </si>
   <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>适合</t>
+  </si>
+  <si>
+    <t>有点</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
     <t>小人物</t>
   </si>
   <si>
-    <t>漫画</t>
-  </si>
-  <si>
-    <t>有点</t>
-  </si>
-  <si>
-    <t>川</t>
-  </si>
-  <si>
-    <t>适合</t>
-  </si>
-  <si>
-    <t>一定</t>
+    <t>—</t>
+  </si>
+  <si>
+    <t>三明治</t>
+  </si>
+  <si>
+    <t>这部</t>
+  </si>
+  <si>
+    <t>感人</t>
   </si>
   <si>
     <t>特别</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>感人</t>
+    <t>系</t>
+  </si>
+  <si>
+    <t>没</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
+    <t>知道</t>
   </si>
   <si>
     <t>小品</t>
   </si>
   <si>
+    <t>音乐</t>
+  </si>
+  <si>
     <t>饿</t>
   </si>
   <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>这部</t>
-  </si>
-  <si>
-    <t>三明治</t>
+    <t>老板</t>
   </si>
   <si>
     <t>里面</t>
   </si>
   <si>
-    <t>没</t>
-  </si>
-  <si>
-    <t>老板</t>
-  </si>
-  <si>
-    <t>系</t>
-  </si>
-  <si>
-    <t>哭</t>
-  </si>
-  <si>
-    <t>知道</t>
+    <t>时</t>
+  </si>
+  <si>
+    <t>幸福</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>小小的</t>
   </si>
   <si>
     <t>拍</t>
   </si>
   <si>
-    <t>小小的</t>
-  </si>
-  <si>
-    <t>幸福</t>
+    <t>人间</t>
+  </si>
+  <si>
+    <t>更</t>
   </si>
   <si>
     <t>牛油</t>
   </si>
   <si>
+    <t>淡淡的</t>
+  </si>
+  <si>
+    <t>应该</t>
+  </si>
+  <si>
     <t>安静</t>
   </si>
   <si>
-    <t>人间</t>
-  </si>
-  <si>
-    <t>淡淡的</t>
-  </si>
-  <si>
-    <t>应该</t>
-  </si>
-  <si>
-    <t>一起</t>
-  </si>
-  <si>
-    <t>更</t>
-  </si>
-  <si>
-    <t>时</t>
+    <t>清新</t>
+  </si>
+  <si>
+    <t>一段</t>
   </si>
   <si>
     <t>茶泡饭</t>
   </si>
   <si>
+    <t>看到</t>
+  </si>
+  <si>
+    <t>每集</t>
+  </si>
+  <si>
+    <t>一道</t>
+  </si>
+  <si>
     <t>世间</t>
   </si>
   <si>
-    <t>一段</t>
-  </si>
-  <si>
-    <t>清新</t>
-  </si>
-  <si>
-    <t>每集</t>
-  </si>
-  <si>
-    <t>一道</t>
-  </si>
-  <si>
-    <t>看到</t>
+    <t>美好</t>
+  </si>
+  <si>
+    <t>炒面</t>
+  </si>
+  <si>
+    <t>啊啊啊</t>
+  </si>
+  <si>
+    <t>好像</t>
+  </si>
+  <si>
+    <t>薰</t>
+  </si>
+  <si>
+    <t>一碗</t>
+  </si>
+  <si>
+    <t>回流</t>
+  </si>
+  <si>
+    <t>起来</t>
+  </si>
+  <si>
+    <t>轻视</t>
+  </si>
+  <si>
+    <t>睡前</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>需要</t>
   </si>
   <si>
     <t>几集</t>
   </si>
   <si>
-    <t>回流</t>
+    <t>吃饭</t>
   </si>
   <si>
     <t>流浪人</t>
   </si>
   <si>
-    <t>很多</t>
-  </si>
-  <si>
-    <t>一碗</t>
-  </si>
-  <si>
-    <t>炒面</t>
-  </si>
-  <si>
-    <t>起来</t>
-  </si>
-  <si>
-    <t>好像</t>
-  </si>
-  <si>
-    <t>需要</t>
-  </si>
-  <si>
-    <t>啊啊啊</t>
-  </si>
-  <si>
-    <t>吃饭</t>
-  </si>
-  <si>
-    <t>轻视</t>
-  </si>
-  <si>
-    <t>美好</t>
-  </si>
-  <si>
-    <t>睡前</t>
-  </si>
-  <si>
-    <t>薰</t>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>人心</t>
+  </si>
+  <si>
+    <t>看过</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>不错</t>
+  </si>
+  <si>
+    <t>日式</t>
+  </si>
+  <si>
+    <t>越</t>
+  </si>
+  <si>
+    <t>夜晚</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>百味</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>片</t>
   </si>
   <si>
     <t>店</t>
   </si>
   <si>
-    <t>人心</t>
+    <t>片子</t>
   </si>
   <si>
     <t>希望</t>
   </si>
   <si>
-    <t>片子</t>
+    <t>人物</t>
   </si>
   <si>
     <t>真</t>
   </si>
   <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>片</t>
-  </si>
-  <si>
-    <t>看过</t>
-  </si>
-  <si>
-    <t>越</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>地方</t>
-  </si>
-  <si>
-    <t>夜晚</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>百味</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>·</t>
-  </si>
-  <si>
-    <t>不错</t>
-  </si>
-  <si>
-    <t>日式</t>
+    <t>最好</t>
+  </si>
+  <si>
+    <t>集</t>
+  </si>
+  <si>
+    <t>慢慢</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>每一集</t>
+  </si>
+  <si>
+    <t>最后</t>
+  </si>
+  <si>
+    <t>充满</t>
+  </si>
+  <si>
+    <t>版</t>
   </si>
   <si>
     <t>一间</t>
   </si>
   <si>
+    <t>散文诗</t>
+  </si>
+  <si>
+    <t>真实</t>
+  </si>
+  <si>
+    <t>流泪</t>
+  </si>
+  <si>
     <t>香肠</t>
   </si>
   <si>
-    <t>前</t>
-  </si>
-  <si>
-    <t>慢慢</t>
+    <t>暖</t>
+  </si>
+  <si>
+    <t>温柔</t>
   </si>
   <si>
     <t>台词</t>
   </si>
   <si>
-    <t>暖</t>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>娓娓道来</t>
+  </si>
+  <si>
+    <t>节奏</t>
+  </si>
+  <si>
+    <t>心灵</t>
+  </si>
+  <si>
+    <t>一直</t>
+  </si>
+  <si>
+    <t>挺</t>
+  </si>
+  <si>
+    <t>做饭</t>
   </si>
   <si>
     <t>心</t>
   </si>
   <si>
-    <t>真实</t>
-  </si>
-  <si>
-    <t>最后</t>
-  </si>
-  <si>
-    <t>集</t>
-  </si>
-  <si>
-    <t>最好</t>
-  </si>
-  <si>
-    <t>每一集</t>
-  </si>
-  <si>
-    <t>流泪</t>
-  </si>
-  <si>
-    <t>娓娓道来</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>版</t>
-  </si>
-  <si>
-    <t>开</t>
-  </si>
-  <si>
-    <t>一直</t>
-  </si>
-  <si>
-    <t>做饭</t>
-  </si>
-  <si>
-    <t>充满</t>
-  </si>
-  <si>
-    <t>心灵</t>
-  </si>
-  <si>
-    <t>温柔</t>
-  </si>
-  <si>
-    <t>散文诗</t>
-  </si>
-  <si>
-    <t>节奏</t>
-  </si>
-  <si>
-    <t>挺</t>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>猫饭</t>
+  </si>
+  <si>
+    <t>平静</t>
+  </si>
+  <si>
+    <t>间</t>
+  </si>
+  <si>
+    <t>不了</t>
+  </si>
+  <si>
+    <t>那种</t>
+  </si>
+  <si>
+    <t>真正</t>
   </si>
   <si>
     <t>每次</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>那集</t>
+  </si>
+  <si>
+    <t>不同</t>
+  </si>
+  <si>
+    <t>完全</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>梦想</t>
+  </si>
+  <si>
+    <t>氛围</t>
+  </si>
+  <si>
     <t>平平淡淡</t>
   </si>
   <si>
     <t>一点</t>
   </si>
   <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>舒服</t>
+  </si>
+  <si>
+    <t>菜</t>
+  </si>
+  <si>
+    <t>总是</t>
+  </si>
+  <si>
+    <t>胃</t>
+  </si>
+  <si>
+    <t>无法</t>
+  </si>
+  <si>
+    <t>样子</t>
+  </si>
+  <si>
+    <t>回味</t>
+  </si>
+  <si>
+    <t>动人</t>
+  </si>
+  <si>
+    <t>听</t>
+  </si>
+  <si>
+    <t>清淡</t>
+  </si>
+  <si>
+    <t>美味</t>
+  </si>
+  <si>
+    <t>真是</t>
+  </si>
+  <si>
+    <t>吸引</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
     <t>一边</t>
   </si>
   <si>
-    <t>不了</t>
-  </si>
-  <si>
-    <t>总是</t>
+    <t>拉面</t>
+  </si>
+  <si>
+    <t>情节</t>
+  </si>
+  <si>
+    <t>之后</t>
+  </si>
+  <si>
+    <t>人情味</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>好好</t>
+  </si>
+  <si>
+    <t>理解</t>
+  </si>
+  <si>
+    <t>慰藉</t>
   </si>
   <si>
     <t>表演</t>
   </si>
   <si>
-    <t>美味</t>
-  </si>
-  <si>
-    <t>完全</t>
-  </si>
-  <si>
-    <t>猫饭</t>
-  </si>
-  <si>
-    <t>好好</t>
-  </si>
-  <si>
-    <t>不同</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>平静</t>
-  </si>
-  <si>
-    <t>间</t>
-  </si>
-  <si>
-    <t>点</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>无法</t>
-  </si>
-  <si>
-    <t>现在</t>
-  </si>
-  <si>
-    <t>胃</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>舒服</t>
-  </si>
-  <si>
-    <t>那集</t>
-  </si>
-  <si>
-    <t>动人</t>
-  </si>
-  <si>
-    <t>人情味</t>
-  </si>
-  <si>
-    <t>听</t>
-  </si>
-  <si>
-    <t>理解</t>
-  </si>
-  <si>
-    <t>梦想</t>
-  </si>
-  <si>
-    <t>氛围</t>
-  </si>
-  <si>
-    <t>真正</t>
-  </si>
-  <si>
-    <t>情节</t>
-  </si>
-  <si>
-    <t>慰藉</t>
-  </si>
-  <si>
-    <t>吸引</t>
-  </si>
-  <si>
-    <t>之后</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>完美</t>
-  </si>
-  <si>
-    <t>真是</t>
-  </si>
-  <si>
-    <t>菜</t>
-  </si>
-  <si>
-    <t>那种</t>
-  </si>
-  <si>
-    <t>拉面</t>
-  </si>
-  <si>
-    <t>清淡</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>回家</t>
-  </si>
-  <si>
-    <t>回味</t>
-  </si>
-  <si>
-    <t>样子</t>
+    <t>疲惫</t>
+  </si>
+  <si>
+    <t>中国</t>
   </si>
   <si>
     <t>散文</t>
   </si>
   <si>
+    <t>酸甜苦辣</t>
+  </si>
+  <si>
+    <t>以后</t>
+  </si>
+  <si>
+    <t>超</t>
+  </si>
+  <si>
+    <t>其实</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>抚平</t>
+  </si>
+  <si>
+    <t>好听</t>
+  </si>
+  <si>
+    <t>心情</t>
+  </si>
+  <si>
+    <t>回忆</t>
+  </si>
+  <si>
+    <t>怀念</t>
+  </si>
+  <si>
     <t>改编</t>
   </si>
   <si>
+    <t>结局</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>可爱</t>
+  </si>
+  <si>
+    <t>隽永</t>
+  </si>
+  <si>
+    <t>餐馆</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>剧集</t>
+  </si>
+  <si>
     <t>大概</t>
   </si>
   <si>
-    <t>结局</t>
+    <t>讲</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>短剧</t>
+  </si>
+  <si>
+    <t>片头</t>
+  </si>
+  <si>
+    <t>记忆</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>风格</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>淡淡</t>
+  </si>
+  <si>
+    <t>突然</t>
+  </si>
+  <si>
+    <t>尤其</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>不会</t>
+  </si>
+  <si>
+    <t>孤独</t>
+  </si>
+  <si>
+    <t>背后</t>
+  </si>
+  <si>
+    <t>仿佛</t>
   </si>
   <si>
     <t>事情</t>
   </si>
   <si>
-    <t>超</t>
-  </si>
-  <si>
-    <t>边缘</t>
-  </si>
-  <si>
-    <t>酸甜苦辣</t>
-  </si>
-  <si>
-    <t>心情</t>
-  </si>
-  <si>
-    <t>仿佛</t>
-  </si>
-  <si>
-    <t>好听</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>淡淡</t>
-  </si>
-  <si>
-    <t>疲惫</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>回忆</t>
-  </si>
-  <si>
-    <t>怀念</t>
-  </si>
-  <si>
-    <t>继续</t>
-  </si>
-  <si>
-    <t>其实</t>
-  </si>
-  <si>
-    <t>以后</t>
-  </si>
-  <si>
-    <t>突然</t>
-  </si>
-  <si>
-    <t>记忆</t>
-  </si>
-  <si>
-    <t>孤独</t>
-  </si>
-  <si>
-    <t>可能</t>
-  </si>
-  <si>
-    <t>餐馆</t>
-  </si>
-  <si>
-    <t>抚平</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>片头</t>
-  </si>
-  <si>
-    <t>尤其</t>
-  </si>
-  <si>
-    <t>不会</t>
-  </si>
-  <si>
-    <t>隽永</t>
-  </si>
-  <si>
-    <t>剧集</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>可爱</t>
-  </si>
-  <si>
-    <t>发生</t>
-  </si>
-  <si>
-    <t>发现</t>
-  </si>
-  <si>
-    <t>短剧</t>
-  </si>
-  <si>
-    <t>风格</t>
-  </si>
-  <si>
-    <t>背后</t>
-  </si>
-  <si>
-    <t>加</t>
-  </si>
-  <si>
-    <t>讲</t>
+    <t>现实</t>
+  </si>
+  <si>
+    <t>人情</t>
+  </si>
+  <si>
+    <t>暖暖的</t>
+  </si>
+  <si>
+    <t>做作</t>
+  </si>
+  <si>
+    <t>作品</t>
+  </si>
+  <si>
+    <t>超级</t>
+  </si>
+  <si>
+    <t>缓慢</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>深刻</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>男人</t>
+  </si>
+  <si>
+    <t>迷失</t>
+  </si>
+  <si>
+    <t>过于</t>
+  </si>
+  <si>
+    <t>值得</t>
+  </si>
+  <si>
+    <t>心里</t>
+  </si>
+  <si>
+    <t>遗憾</t>
+  </si>
+  <si>
+    <t>像是</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>海苔</t>
+  </si>
+  <si>
+    <t>之间</t>
+  </si>
+  <si>
+    <t>美食家</t>
+  </si>
+  <si>
+    <t>这家</t>
+  </si>
+  <si>
+    <t>伤痛</t>
+  </si>
+  <si>
+    <t>心灵鸡汤</t>
+  </si>
+  <si>
+    <t>进</t>
+  </si>
+  <si>
+    <t>有如</t>
+  </si>
+  <si>
+    <t>心中</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>一个个</t>
+  </si>
+  <si>
+    <t>食客</t>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>一天</t>
+  </si>
+  <si>
+    <t>吉他</t>
+  </si>
+  <si>
+    <t>一季</t>
+  </si>
+  <si>
+    <t>一家</t>
+  </si>
+  <si>
+    <t>烟火</t>
+  </si>
+  <si>
+    <t>看一遍</t>
+  </si>
+  <si>
+    <t>题材</t>
+  </si>
+  <si>
+    <t>主题曲</t>
+  </si>
+  <si>
+    <t>舒缓</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>剧有</t>
+  </si>
+  <si>
+    <t>确实</t>
+  </si>
+  <si>
+    <t>一遍</t>
+  </si>
+  <si>
+    <t>永远</t>
   </si>
   <si>
     <t>桑</t>
   </si>
   <si>
-    <t>永远</t>
-  </si>
-  <si>
-    <t>人情</t>
-  </si>
-  <si>
-    <t>看一遍</t>
-  </si>
-  <si>
-    <t>男人</t>
-  </si>
-  <si>
-    <t>做作</t>
-  </si>
-  <si>
-    <t>海苔</t>
-  </si>
-  <si>
-    <t>一家</t>
-  </si>
-  <si>
-    <t>一个个</t>
-  </si>
-  <si>
-    <t>睡</t>
-  </si>
-  <si>
-    <t>食客</t>
-  </si>
-  <si>
-    <t>吉他</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>遗憾</t>
-  </si>
-  <si>
-    <t>像是</t>
-  </si>
-  <si>
-    <t>一天</t>
-  </si>
-  <si>
-    <t>现实</t>
-  </si>
-  <si>
-    <t>一季</t>
-  </si>
-  <si>
-    <t>心里</t>
-  </si>
-  <si>
-    <t>美食家</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>单纯</t>
+    <t>神奇</t>
+  </si>
+  <si>
+    <t>原来</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>作品</t>
-  </si>
-  <si>
-    <t>深刻</t>
-  </si>
-  <si>
-    <t>日常</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
-    <t>伤痛</t>
-  </si>
-  <si>
-    <t>这家</t>
+    <t>年纪</t>
   </si>
   <si>
     <t>20</t>
@@ -864,60 +918,6 @@
   </si>
   <si>
     <t>平和</t>
-  </si>
-  <si>
-    <t>原来</t>
-  </si>
-  <si>
-    <t>找到</t>
-  </si>
-  <si>
-    <t>便</t>
-  </si>
-  <si>
-    <t>进</t>
-  </si>
-  <si>
-    <t>缓慢</t>
-  </si>
-  <si>
-    <t>过于</t>
-  </si>
-  <si>
-    <t>戾</t>
-  </si>
-  <si>
-    <t>片头曲</t>
-  </si>
-  <si>
-    <t>倒</t>
-  </si>
-  <si>
-    <t>比较</t>
-  </si>
-  <si>
-    <t>煮</t>
-  </si>
-  <si>
-    <t>煎蛋</t>
-  </si>
-  <si>
-    <t>迷失</t>
-  </si>
-  <si>
-    <t>短</t>
-  </si>
-  <si>
-    <t>值得</t>
-  </si>
-  <si>
-    <t>体会</t>
-  </si>
-  <si>
-    <t>分钟</t>
-  </si>
-  <si>
-    <t>小小</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2046,37 +2046,37 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
         <f/>
         <v>0</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -2095,7 +2095,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
